--- a/3팀 요구사항정의서.xlsx
+++ b/3팀 요구사항정의서.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sesame\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimdo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD4C584-58B3-4CCD-B936-04F48E623D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86EF36EF-DC24-4C6D-94D0-49C39BA28B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FE17BE50-644C-4C78-8011-7B4B97B4B274}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FE17BE50-644C-4C78-8011-7B4B97B4B274}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="96">
   <si>
     <t>구분</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,14 +95,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Regist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>공지글 삭제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -227,12 +219,191 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>회원가입
-[아이디], [비밀번호], [닉네임] 입력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[아이디], [비밀번호]를 입력하여 로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U01_A01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Register</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U01_A02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U01_A03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구사항 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U03_A01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U02_A01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U02_A02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U03_A02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U03_A03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U03_A04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U03_A05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U03_A06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U03_A07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U03_A08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U04_A01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U04_A02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U04_A03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U04_A04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U04_A05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U04_A06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U04_A07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U04_A08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[아이디], [비밀번호], [닉네임] 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U02_A03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인정보 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[비밀번호], [닉네임], [이메일] 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U03_A09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U03_A10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U03_A11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U03_A12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U03_A13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성 페이지에서 글자의 폰트 설정 가능</t>
+  </si>
+  <si>
+    <t xml:space="preserve">작성 페이지에서 글자의 폰트 크기 설정 가능 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 부적절한 댓글을 위한 신고 기능 -&gt; 관리자의 신고 저장 페이지로 넘어감</t>
+  </si>
+  <si>
+    <t>부적절한 게시글을 위한 신고 기능 -&gt; 위와 동일</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 추천하기 구현 및 일정 수치 넘어갈 시 인기글로 넘어감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폰트 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폰트 크기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 신고하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 신고하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 추천하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -306,24 +477,11 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="16">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -413,22 +571,100 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -441,80 +677,116 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -830,386 +1102,600 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFCCD5F1-3523-451B-9AA6-268777B5E5D8}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="69" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="11.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="60.75" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="60.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="38.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:8" ht="36" x14ac:dyDescent="0.45">
+      <c r="A1" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-    </row>
-    <row r="3" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+    </row>
+    <row r="2" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="3" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="23" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="27" t="s">
+    <row r="4" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5" s="26"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="26"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="13"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A7" s="26"/>
+      <c r="B7" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A8" s="26"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="26"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A10" s="26"/>
+      <c r="B10" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A11" s="26"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A12" s="26"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A13" s="26"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A14" s="26"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="9"/>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A15" s="26"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A16" s="26"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="9"/>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A17" s="26"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A18" s="26"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A19" s="26"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A20" s="26"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" s="9"/>
+      <c r="H20" s="10"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A21" s="26"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="H21" s="10"/>
+    </row>
+    <row r="22" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A22" s="27"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="G22" s="12"/>
+      <c r="H22" s="13"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A23" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="9"/>
+      <c r="H23" s="10"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A24" s="37"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="9"/>
+      <c r="H24" s="10"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A25" s="37"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="9"/>
+      <c r="H25" s="10"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A26" s="37"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="9"/>
+      <c r="H26" s="10"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A27" s="37"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="9"/>
+      <c r="H27" s="10"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A28" s="37"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="9"/>
+      <c r="H28" s="10"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A29" s="37"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="9"/>
-      <c r="G4" s="10"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="28"/>
-      <c r="B5" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10"/>
-    </row>
-    <row r="6" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="28"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="15"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="28"/>
-      <c r="B7" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="12"/>
-    </row>
-    <row r="8" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="28"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="12"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="25"/>
-      <c r="B9" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="12"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="12"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="25"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="12"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="12"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="19"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="4" t="s">
+      <c r="F29" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="9"/>
+      <c r="H29" s="10"/>
+    </row>
+    <row r="30" spans="1:8" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A30" s="38"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="12"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="19"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="4" t="s">
+      <c r="F30" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="12"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="19"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="12"/>
-    </row>
-    <row r="16" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="19"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="12"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="10"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="25"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="12"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="25"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="11"/>
-      <c r="G19" s="12"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="25"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="12"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="25"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="11"/>
-      <c r="G21" s="12"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="25"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="11"/>
-      <c r="G22" s="12"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="25"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" s="11"/>
-      <c r="G23" s="12"/>
-    </row>
-    <row r="24" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="26"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F24" s="14"/>
-      <c r="G24" s="15"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="20"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="3"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B31"/>
-      <c r="C31"/>
-      <c r="D31"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B32"/>
-      <c r="C32"/>
-      <c r="D32"/>
-    </row>
-    <row r="33" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="34" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="35" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="36" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="38" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="39" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="40" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="41" customFormat="1" x14ac:dyDescent="0.3"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="13"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A31" s="15"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37"/>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39"/>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+    </row>
+    <row r="44" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
+    </row>
+    <row r="45" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45"/>
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46"/>
+    </row>
+    <row r="47" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="E47"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B17:B24"/>
-    <mergeCell ref="A17:A24"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
+  <mergeCells count="11">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B23:B30"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="A4:A22"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B10:B22"/>
+    <mergeCell ref="C10:C22"/>
+    <mergeCell ref="C23:C30"/>
+    <mergeCell ref="A23:A30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
